--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/金融机构部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/金融机构部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,32 +603,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308</v>
+        <v>1683.959964</v>
       </c>
       <c r="C2" t="n">
-        <v>38.46</v>
+        <v>1325.97361520265</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>408.242945800789</v>
+        <v>12910.3151137127</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5010.37</v>
+        <v>24483.161</v>
       </c>
       <c r="J2" t="n">
-        <v>1645.26130501486</v>
+        <v>6661</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>110.343156795506</v>
+        <v>296.231259427959</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -638,59 +638,61 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>113.107672886029</v>
+        <v>2649.66126222218</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2122.6</v>
+        <v>2463.83324598</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>1180.5931797574</v>
+      </c>
       <c r="AE2" t="n">
-        <v>421.107672886029</v>
+        <v>4333.62122622218</v>
       </c>
       <c r="AF2" t="n">
-        <v>5048.83</v>
+        <v>26989.7277949601</v>
       </c>
       <c r="AG2" t="n">
-        <v>110.343156795506</v>
+        <v>296.231259427959</v>
       </c>
       <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333</v>
+        <v>2087.93</v>
       </c>
       <c r="C3" t="n">
-        <v>50.46</v>
+        <v>1257.93412427159</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1100.00820403456</v>
+        <v>14779.0893020921</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>4773.18</v>
+        <v>37656.288268</v>
       </c>
       <c r="J3" t="n">
-        <v>1794.76403026817</v>
+        <v>8062.53065072298</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>156.410288186464</v>
+        <v>400.093510978586</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -700,59 +702,61 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>193.145404381141</v>
+        <v>3402.5933520995</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>1611.96</v>
+        <v>2906.30291143511</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>1145.82194160548</v>
+      </c>
       <c r="AE3" t="n">
-        <v>526.145404381141</v>
+        <v>5490.5233520995</v>
       </c>
       <c r="AF3" t="n">
-        <v>4823.64</v>
+        <v>40060.0443338771</v>
       </c>
       <c r="AG3" t="n">
-        <v>156.410288186464</v>
+        <v>400.093510978586</v>
       </c>
       <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403</v>
+        <v>2697.97</v>
       </c>
       <c r="C4" t="n">
-        <v>41.82</v>
+        <v>1368.38477469223</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>1744.32187014761</v>
+        <v>16324.7808071811</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>4818.725</v>
+        <v>48129.30375</v>
       </c>
       <c r="J4" t="n">
-        <v>2040.35733876537</v>
+        <v>9250.71852295098</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>183.208398995975</v>
+        <v>530.572838045654</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -762,59 +766,61 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>143.808696108541</v>
+        <v>4902.9691718833</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>997.95</v>
+        <v>3403.33805555788</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>430.308577614825</v>
+      </c>
       <c r="AE4" t="n">
-        <v>546.808696108541</v>
+        <v>7600.9391718833</v>
       </c>
       <c r="AF4" t="n">
-        <v>4860.545</v>
+        <v>49927.997102307</v>
       </c>
       <c r="AG4" t="n">
-        <v>183.208398995975</v>
+        <v>530.572838045654</v>
       </c>
       <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>476</v>
+        <v>3287.3</v>
       </c>
       <c r="C5" t="n">
-        <v>67.40000000000001</v>
+        <v>1753.07854049902</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>2801.14368745231</v>
+        <v>14326.9221021072</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>5417.96</v>
+        <v>44342.1252304878</v>
       </c>
       <c r="J5" t="n">
-        <v>2001.43373691237</v>
+        <v>12090.0993336621</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>65.7452557912541</v>
+        <v>636.280022092383</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -824,59 +830,61 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>170.325716276208</v>
+        <v>5890.14599026052</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>751.2</v>
+        <v>4598.39945695872</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>1188.7871892008</v>
+      </c>
       <c r="AE5" t="n">
-        <v>646.325716276208</v>
+        <v>9177.445990260519</v>
       </c>
       <c r="AF5" t="n">
-        <v>5485.36</v>
+        <v>47283.9909601876</v>
       </c>
       <c r="AG5" t="n">
-        <v>65.7452557912541</v>
+        <v>636.280022092383</v>
       </c>
       <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>578</v>
+        <v>3627.24</v>
       </c>
       <c r="C6" t="n">
-        <v>80.2</v>
+        <v>2375.12531265012</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>3007.01707346124</v>
+        <v>15259.8500834106</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>6369.43</v>
+        <v>50598.9791965787</v>
       </c>
       <c r="J6" t="n">
-        <v>2114.0083884057</v>
+        <v>13687.5229873205</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>68.6141687707223</v>
+        <v>672.957271276128</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -886,61 +894,61 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>180.05440061807</v>
+        <v>7014.78169759986</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>716.28034827</v>
+        <v>5366.82069226353</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>30.2</v>
+        <v>1628.75237646392</v>
       </c>
       <c r="AE6" t="n">
-        <v>758.05440061807</v>
+        <v>10642.0216975999</v>
       </c>
       <c r="AF6" t="n">
-        <v>6479.83</v>
+        <v>54602.8568856928</v>
       </c>
       <c r="AG6" t="n">
-        <v>68.6141687707223</v>
+        <v>672.957271276128</v>
       </c>
       <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672</v>
+        <v>4020.03</v>
       </c>
       <c r="C7" t="n">
-        <v>242.064157102856</v>
+        <v>3190.71014155695</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>3024.32210256285</v>
+        <v>22020.7755952591</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>7554.72</v>
+        <v>49199.2242780378</v>
       </c>
       <c r="J7" t="n">
-        <v>2354.53777857564</v>
+        <v>17431.3912056658</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>76.3302354366766</v>
+        <v>641.518590136616</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -950,61 +958,61 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>607.24331537082</v>
+        <v>8392.775295527819</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>666.331437960823</v>
+        <v>7425.34198637028</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>23.92</v>
+        <v>2345.92145391123</v>
       </c>
       <c r="AE7" t="n">
-        <v>1279.24331537082</v>
+        <v>12412.8052955278</v>
       </c>
       <c r="AF7" t="n">
-        <v>7820.70415710286</v>
+        <v>54735.855873506</v>
       </c>
       <c r="AG7" t="n">
-        <v>76.3302354366766</v>
+        <v>641.518590136616</v>
       </c>
       <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>796</v>
+        <v>4727.2</v>
       </c>
       <c r="C8" t="n">
-        <v>614.298166411358</v>
+        <v>3438.37880330153</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>4216.27513622228</v>
+        <v>28981.6635587511</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>12348.74</v>
+        <v>45495.3126843252</v>
       </c>
       <c r="J8" t="n">
-        <v>2374.61504274098</v>
+        <v>19448.4651270889</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>87.16062144069301</v>
+        <v>635.2317120983799</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1014,61 +1022,61 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>1214.38460393036</v>
+        <v>8719.73932952975</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>755.611306393121</v>
+        <v>6813.40237173006</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>24.2</v>
+        <v>1901.02209448396</v>
       </c>
       <c r="AE8" t="n">
-        <v>2010.38460393036</v>
+        <v>13446.9393295298</v>
       </c>
       <c r="AF8" t="n">
-        <v>12987.2381664114</v>
+        <v>50834.7135821107</v>
       </c>
       <c r="AG8" t="n">
-        <v>87.16062144069301</v>
+        <v>635.2317120983799</v>
       </c>
       <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1021</v>
+        <v>4789.6</v>
       </c>
       <c r="C9" t="n">
-        <v>1674.5</v>
+        <v>3460.63761381976</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>5176.08911971367</v>
+        <v>33925.9865315302</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>15539.18</v>
+        <v>48162.9246781476</v>
       </c>
       <c r="J9" t="n">
-        <v>3163.86851914155</v>
+        <v>21586.9380669142</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>108.436853451388</v>
+        <v>711.944321469098</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1078,61 +1086,61 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1871.80311383224</v>
+        <v>7935.00312642307</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1445.29742122051</v>
+        <v>6026.04570747818</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>233.39273414</v>
+        <v>2858.99011196516</v>
       </c>
       <c r="AE9" t="n">
-        <v>2892.80311383223</v>
+        <v>12724.6031264231</v>
       </c>
       <c r="AF9" t="n">
-        <v>17447.07273414</v>
+        <v>54482.5524039325</v>
       </c>
       <c r="AG9" t="n">
-        <v>108.436853451388</v>
+        <v>711.944321469098</v>
       </c>
       <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1418.34</v>
+        <v>5897.1</v>
       </c>
       <c r="C10" t="n">
-        <v>1074.29962312994</v>
+        <v>3560.5411508888</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>6925.51191538662</v>
+        <v>23713.2884845776</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>21354.12296</v>
+        <v>64738.8318024192</v>
       </c>
       <c r="J10" t="n">
-        <v>4325.84453304353</v>
+        <v>18799.8839559914</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>180.668119958312</v>
+        <v>2005.39842216709</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1142,61 +1150,61 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>2458.31348445241</v>
+        <v>7692.93240448842</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>1754.2349869896</v>
+        <v>6049.20272562597</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>737.703945051015</v>
+        <v>4102.49208830633</v>
       </c>
       <c r="AE10" t="n">
-        <v>3876.65348445241</v>
+        <v>13590.0324044884</v>
       </c>
       <c r="AF10" t="n">
-        <v>23166.126528181</v>
+        <v>72401.86504161431</v>
       </c>
       <c r="AG10" t="n">
-        <v>180.668119958312</v>
+        <v>2005.39842216709</v>
       </c>
       <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1575.785519</v>
+        <v>6501.811903</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.96151891751</v>
+        <v>3669.53706024179</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>8177.38637560655</v>
+        <v>24545.4954052332</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>20424.33</v>
+        <v>71315.4806235413</v>
       </c>
       <c r="J11" t="n">
-        <v>4951.38954272275</v>
+        <v>20823.9902288897</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>228.311789192011</v>
+        <v>2160.87723985041</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1206,61 +1214,61 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>3182.94847073608</v>
+        <v>8875.71564901994</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>2325.58380448384</v>
+        <v>7593.4937732189</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>984.7641245373979</v>
+        <v>7174.66162102206</v>
       </c>
       <c r="AE11" t="n">
-        <v>4758.73398973608</v>
+        <v>15377.5275520199</v>
       </c>
       <c r="AF11" t="n">
-        <v>22646.0556434549</v>
+        <v>82159.67930480521</v>
       </c>
       <c r="AG11" t="n">
-        <v>228.311789192011</v>
+        <v>2160.87723985041</v>
       </c>
       <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1683.959964</v>
+        <v>6954.8858595908</v>
       </c>
       <c r="C12" t="n">
-        <v>1325.97361520265</v>
+        <v>4824.05147870589</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>12910.3151137127</v>
+        <v>33330.445104609</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>24483.161</v>
+        <v>77115.8668829166</v>
       </c>
       <c r="J12" t="n">
-        <v>6661</v>
+        <v>21528.197652071</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>296.231259427959</v>
+        <v>2122.79569099139</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1270,61 +1278,61 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2649.66126222218</v>
+        <v>9073.48595613792</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>2463.83324598</v>
+        <v>8271.811588733861</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>1180.5931797574</v>
+        <v>4095.35993626626</v>
       </c>
       <c r="AE12" t="n">
-        <v>4333.62122622218</v>
+        <v>16028.3718157287</v>
       </c>
       <c r="AF12" t="n">
-        <v>26989.7277949601</v>
+        <v>86035.2782978888</v>
       </c>
       <c r="AG12" t="n">
-        <v>296.231259427959</v>
+        <v>2122.79569099139</v>
       </c>
       <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2087.93</v>
+        <v>7687.4491590726</v>
       </c>
       <c r="C13" t="n">
-        <v>1257.93412427159</v>
+        <v>5916.64817002478</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>14779.0893020921</v>
+        <v>32716.159602154</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>37656.288268</v>
+        <v>87657.8416853813</v>
       </c>
       <c r="J13" t="n">
-        <v>8062.53065072298</v>
+        <v>24083.621939531</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>400.093510978586</v>
+        <v>2373.29623895306</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1334,543 +1342,31 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3402.5933520995</v>
+        <v>9317.36255193378</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>2906.30291143511</v>
+        <v>9421.793884607399</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>1145.82194160548</v>
+        <v>4359.87368023346</v>
       </c>
       <c r="AE13" t="n">
-        <v>5490.5233520995</v>
+        <v>17004.8117110064</v>
       </c>
       <c r="AF13" t="n">
-        <v>40060.0443338771</v>
+        <v>97934.3635356395</v>
       </c>
       <c r="AG13" t="n">
-        <v>400.093510978586</v>
+        <v>2373.29623895306</v>
       </c>
       <c r="AH13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2697.97</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1368.38477469223</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>16324.7808071811</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>48129.30375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9250.71852295098</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>530.572838045654</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>4902.9691718833</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>3403.33805555788</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>430.308577614825</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7600.9391718833</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>49927.997102307</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>530.572838045654</v>
-      </c>
-      <c r="AH14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3287.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1753.07854049902</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>14326.9221021072</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>44342.1252304878</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12090.0993336621</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>636.280022092383</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>5890.14599026052</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>4598.39945695872</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>1188.7871892008</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9177.445990260519</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>47283.9909601876</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>636.280022092383</v>
-      </c>
-      <c r="AH15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3627.24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2375.12531265012</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>15259.8500834106</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>50598.9791965787</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13687.5229873205</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>672.957271276128</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>7014.78169759986</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>5366.82069226353</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>1628.75237646392</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>10642.0216975999</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>54602.8568856928</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>672.957271276128</v>
-      </c>
-      <c r="AH16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4020.03</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3190.71014155695</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>22020.7755952591</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>49199.2242780378</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17431.3912056658</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>641.518590136616</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>8392.775295527819</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>7425.34198637028</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>2345.92145391123</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12412.8052955278</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>54735.855873506</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>641.518590136616</v>
-      </c>
-      <c r="AH17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4727.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3438.37880330153</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>28981.6635587511</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>45495.3126843252</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19448.4651270889</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>635.2317120983799</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>8719.73932952975</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>6813.40237173006</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>1901.02209448396</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13446.9393295298</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>50834.7135821107</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>635.2317120983799</v>
-      </c>
-      <c r="AH18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4789.6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3460.63761381976</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>33925.9865315302</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>48162.9246781476</v>
-      </c>
-      <c r="J19" t="n">
-        <v>21586.9380669142</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>711.944321469098</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>7935.00312642307</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>6026.04570747818</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>2858.99011196516</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>12724.6031264231</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>54482.5524039325</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>711.944321469098</v>
-      </c>
-      <c r="AH19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5897.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3560.5411508888</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>23713.2884845776</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>64738.8318024192</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18799.8839559914</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>2005.39842216709</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>7692.93240448842</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>6049.20272562597</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>4102.49208830633</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13590.0324044884</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>72401.86504161431</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>2005.39842216709</v>
-      </c>
-      <c r="AH20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6501.811903</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3669.53706024179</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>24545.4954052332</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>71315.4806235413</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20823.9902288897</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>2160.87723985041</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>8875.71564901994</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>7593.4937732189</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>7174.66162102206</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15377.5275520199</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>82159.67930480521</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>2160.87723985041</v>
-      </c>
-      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
